--- a/文档/数据库.xlsx
+++ b/文档/数据库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:可用  0:封禁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +210,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>类别id，type的外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商品名称</t>
   </si>
   <si>
@@ -281,6 +281,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>会员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,23 +364,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品id，商品信息表的外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商品评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单id,订单表orders外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员id，会员表users外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别id，分类type的外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品id，商品信息表goods的外键</t>
+    <t>addtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +442,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,12 +470,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -736,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -780,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -821,7 +867,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -829,470 +875,503 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
+      <c r="D15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="D32" t="s">
-        <v>62</v>
+      <c r="D34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="D37" t="s">
-        <v>65</v>
+      <c r="D35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
         <v>75</v>
       </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
+      <c r="D45" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
         <v>79</v>
       </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>49</v>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
         <v>82</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
         <v>29</v>
       </c>
-      <c r="D58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
         <v>52</v>
       </c>
-      <c r="D59" t="s">
-        <v>86</v>
+      <c r="D62" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库.xlsx
+++ b/文档/数据库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分类路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>typeid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别id，type的外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,102 +209,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>descr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double(8,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：0：新订单   1：已发货   2：已收货   3：已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品评价表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品id，商品信息表的外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先辈级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cateid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>商品简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double(6,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linkname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(32）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总金额</t>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double(8,2)</t>
+    <t>ordernum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clicknum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,51 +456,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态：0：新订单   1：已发货   2：已收货   3：已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品评价表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品id，商品信息表的外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品评论</t>
+    <t>商品状态  0：热卖  1：下架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,35 +468,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相片</t>
+    <t>添加时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,11 +856,11 @@
     <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -826,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -867,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -875,13 +935,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -919,13 +979,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -941,18 +1001,18 @@
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -969,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -988,13 +1048,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1002,40 +1062,40 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1054,324 +1114,368 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="D35" t="s">
-        <v>62</v>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
-        <v>66</v>
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
         <v>29</v>
       </c>
-      <c r="D60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
+      <c r="D59" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
